--- a/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Provincia-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9629784790588497</v>
+        <v>0.9629784790588495</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.982434640030311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9726162169378965</v>
+        <v>0.9726162169378968</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9279179741045727</v>
+        <v>0.9318388233000836</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9692583882980037</v>
+        <v>0.9671736346279252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9546683127825741</v>
+        <v>0.9543281739970376</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9809092460042037</v>
+        <v>0.9804633352267002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9908147791306018</v>
+        <v>0.9898611976198536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9825895859038609</v>
+        <v>0.9838443835085161</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.952938407747929</v>
+        <v>0.9505301323226518</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9439511923711602</v>
+        <v>0.9409547022835667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9541357819244571</v>
+        <v>0.9540178232234927</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9867534967452921</v>
+        <v>0.986280849010536</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9737477917885963</v>
+        <v>0.9731068599006459</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9765877015269684</v>
+        <v>0.9765955102558717</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9395929354647425</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9678993061220412</v>
+        <v>0.967899306122041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9543948956153192</v>
+        <v>0.9543948956153194</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9140543364756449</v>
+        <v>0.9082764186667942</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9477890809762327</v>
+        <v>0.9481024796245975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9371895077715168</v>
+        <v>0.936622128622021</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9598549930512228</v>
+        <v>0.9613507956744444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9807070995883215</v>
+        <v>0.9826228105958286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9677575195343874</v>
+        <v>0.9670443026940613</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9644749775452688</v>
+        <v>0.9644749775452687</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9645619865982479</v>
+        <v>0.9645619865982481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9645223848559646</v>
+        <v>0.9645223848559648</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9214697403298769</v>
+        <v>0.921818286222133</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9398355217806021</v>
+        <v>0.9374796333982195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9386111677523388</v>
+        <v>0.9407716213537308</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9863678614183193</v>
+        <v>0.9852098176897518</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9804679439429135</v>
+        <v>0.9807916611988376</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9784154287470842</v>
+        <v>0.978034020874938</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.6391157236545902</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.5895836906186888</v>
+        <v>0.5895836906186889</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6128781038888507</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5770586255134719</v>
+        <v>0.5787917640175129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5418375373823925</v>
+        <v>0.541342919480104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5723252951199328</v>
+        <v>0.5743415296009258</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6967049997489454</v>
+        <v>0.6944704018184087</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6359543097405058</v>
+        <v>0.6360251358203561</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6453321561995323</v>
+        <v>0.6493929477920687</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9109083172282589</v>
+        <v>0.9109083172282588</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.9344151188969705</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.866509683728631</v>
+        <v>0.8711853056392032</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9011403101048887</v>
+        <v>0.9009483178203569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8968501262087225</v>
+        <v>0.8978574382244348</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9390758271019906</v>
+        <v>0.943046637800223</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.956832078028534</v>
+        <v>0.9562285564397598</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9414547111510262</v>
+        <v>0.9429990226648882</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.8039068528556909</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7832008688250029</v>
+        <v>0.7832008688250028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7932551050175142</v>
+        <v>0.7932551050175141</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7704774212015686</v>
+        <v>0.7694980462315427</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7556269104769882</v>
+        <v>0.7517848199059292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7716974870371464</v>
+        <v>0.770926144758367</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.834878950402955</v>
+        <v>0.8352730903482288</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8120983591610557</v>
+        <v>0.8094297640190268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8155991310674546</v>
+        <v>0.8151469791914309</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9778433453755471</v>
+        <v>0.9778433453755472</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9776873100998851</v>
+        <v>0.9776873100998849</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.9777625862050773</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9604229893686129</v>
+        <v>0.9615237995089586</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9657048777191132</v>
+        <v>0.9671209845993164</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9680922249443176</v>
+        <v>0.9689210039981311</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9876778763762549</v>
+        <v>0.9883355838394166</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9853821343228563</v>
+        <v>0.985614467879764</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9846392041293357</v>
+        <v>0.9842609569912926</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8980254155979286</v>
+        <v>0.8970382423374945</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8956817484851252</v>
+        <v>0.8966903468789036</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8992146957068997</v>
+        <v>0.8990062276697658</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9190764967428776</v>
+        <v>0.9184571363208037</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9121354211624434</v>
+        <v>0.9136904331842355</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9127544845074419</v>
+        <v>0.912620950595928</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>295147</v>
+        <v>296394</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>302623</v>
+        <v>301972</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>601723</v>
+        <v>601508</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>312002</v>
+        <v>311860</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>309353</v>
+        <v>309055</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>619321</v>
+        <v>620112</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>497408</v>
+        <v>496151</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>499936</v>
+        <v>498349</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1003363</v>
+        <v>1003239</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>515059</v>
+        <v>514812</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>515717</v>
+        <v>515378</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1026974</v>
+        <v>1026982</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>271527</v>
+        <v>269811</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>308601</v>
+        <v>308703</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>583549</v>
+        <v>583196</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>285133</v>
+        <v>285577</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>319319</v>
+        <v>319943</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>602583</v>
+        <v>602139</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>265184</v>
+        <v>265285</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>323780</v>
+        <v>322968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>593476</v>
+        <v>594842</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>283861</v>
+        <v>283528</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>337778</v>
+        <v>337890</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>618644</v>
+        <v>618403</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>115432</v>
+        <v>115779</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>122081</v>
+        <v>121970</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>243437</v>
+        <v>244294</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>139366</v>
+        <v>138919</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>143287</v>
+        <v>143303</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>274490</v>
+        <v>276217</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>211763</v>
+        <v>212905</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>211892</v>
+        <v>211847</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>430061</v>
+        <v>430544</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>229497</v>
+        <v>230467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>224988</v>
+        <v>224846</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>451450</v>
+        <v>452191</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>534696</v>
+        <v>534016</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>555554</v>
+        <v>552729</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1102912</v>
+        <v>1101809</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>579389</v>
+        <v>579663</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>597073</v>
+        <v>595111</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1165656</v>
+        <v>1165010</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>686208</v>
+        <v>686994</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>740240</v>
+        <v>741325</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1433757</v>
+        <v>1434985</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>705681</v>
+        <v>706151</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>755323</v>
+        <v>755501</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1458263</v>
+        <v>1457703</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2943527</v>
+        <v>2940291</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3111731</v>
+        <v>3115235</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6071430</v>
+        <v>6070023</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3012528</v>
+        <v>3010498</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3168893</v>
+        <v>3174296</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6162850</v>
+        <v>6161948</v>
       </c>
     </row>
     <row r="40">
